--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:39:10+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-15T14:53:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:53:45+00:00</t>
+    <t>2023-02-15T15:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T15:02:29+00:00</t>
+    <t>2023-02-15T19:34:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T19:34:16+00:00</t>
+    <t>2023-02-16T07:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:18:21+00:00</t>
+    <t>2023-02-16T07:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:24:24+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T07:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:39:57+00:00</t>
+    <t>2023-02-16T08:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:15:30+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:04:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:04:40+00:00</t>
+    <t>2023-02-16T09:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:05:53+00:00</t>
+    <t>2023-02-16T09:13:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:13:52+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:29:44+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-16T14:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:44:06+00:00</t>
+    <t>2023-02-16T14:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:49:30+00:00</t>
+    <t>2023-02-16T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:51:09+00:00</t>
+    <t>2023-02-16T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:57:31+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T04:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:54:17+00:00</t>
+    <t>2023-02-17T05:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:00:13+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:03:48+00:00</t>
+    <t>2023-02-17T06:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:10:41+00:00</t>
+    <t>2023-02-17T06:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:12:18+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>HIV 1 RNA [#/volume] (viral load) in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>24467-3</t>
+  </si>
+  <si>
+    <t>CD3+CD4+ (T4 helper) cells [#/volume] in Blood</t>
   </si>
   <si>
     <t/>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,15 +432,23 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T10:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:01:01+00:00</t>
+    <t>2023-02-27T10:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:21:42+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-02T12:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:52:23+00:00</t>
+    <t>2023-03-02T15:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:41:19+00:00</t>
+    <t>2023-03-02T15:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:42:08+00:00</t>
+    <t>2023-03-03T07:02:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:02:32+00:00</t>
+    <t>2023-03-03T07:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:03+00:00</t>
+    <t>2023-03-03T07:18:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:54+00:00</t>
+    <t>2023-03-03T08:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:26:44+00:00</t>
+    <t>2023-03-03T08:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:27:27+00:00</t>
+    <t>2023-03-03T09:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T09:39:05+00:00</t>
+    <t>2023-03-03T10:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:18:33+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T13:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:55:36+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:42:03+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T14:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:55:13+00:00</t>
+    <t>2023-03-03T15:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:04:29+00:00</t>
+    <t>2023-03-03T15:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:12:51+00:00</t>
+    <t>2023-03-03T15:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:20:32+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:03:55+00:00</t>
+    <t>2023-03-03T16:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:05:54+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T08:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:23+00:00</t>
+    <t>2023-03-04T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:06:02+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T14:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:13:00+00:00</t>
+    <t>2023-03-07T14:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:55:06+00:00</t>
+    <t>2023-03-07T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:05+00:00</t>
+    <t>2023-03-07T15:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:58:21+00:00</t>
+    <t>2023-03-07T16:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:00:01+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T16:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:32:06+00:00</t>
+    <t>2023-03-07T16:55:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:55:29+00:00</t>
+    <t>2023-03-07T17:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:01:20+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T14:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:51:34+00:00</t>
+    <t>2023-03-08T14:57:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:57:07+00:00</t>
+    <t>2023-03-08T15:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:19:16+00:00</t>
+    <t>2023-03-08T15:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:22:38+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-03-10T12:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T12:01:47+00:00</t>
+    <t>2023-04-04T10:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:36+00:00</t>
+    <t>2023-04-04T10:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:52+00:00</t>
+    <t>2023-04-04T10:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-test-types.xlsx
+++ b/ValueSet-vs-test-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:54:41+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
